--- a/doc/app/pg0171/エビデンス/No1.xlsx
+++ b/doc/app/pg0171/エビデンス/No1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\rust\rust_learn\doc\app\pg0171\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59AB7C7-6299-403B-B351-BCDCDB425198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4A7F5-CEBA-456F-8C4E-6E3712B9E90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
+    <sheet name="1回目" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:EL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6:AS6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AY5" sqref="AY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
